--- a/input_parameters_exp.xlsx
+++ b/input_parameters_exp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/sh19129_bristol_ac_uk/Documents/Documents/MyProject/ML/HSP_python/solv_pred/hsp_tool_solv_pred_v_2.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/sh19129_bristol_ac_uk/Documents/Documents/MyProject/ML/HSP_python/calculation/cal_20221227_solv_pred_v2/hsp_toolkit_solv_pred_v_2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="11_F25DC773A252ABDACC1048E8991D7BDE5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B827991-2C2A-47F4-BEF4-625471E51741}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_F25DC773A252ABDACC1048E8991D7BDE5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9093D6D6-A8D4-4175-8290-E074723C0157}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>n &gt;=2, integer, less than total number of candidates, default = 2</t>
   </si>
   <si>
-    <t>temp</t>
-  </si>
-  <si>
     <t>Explain</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>lowest acceptable concentration - below which that solvent is redundant</t>
   </si>
   <si>
-    <t>float in the range of (0.1, 1), default = 0.1</t>
-  </si>
-  <si>
     <t>input_parameter</t>
   </si>
   <si>
@@ -126,18 +120,6 @@
     <t>cand_list</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>default_solv_candidate.json</t>
-    </r>
-  </si>
-  <si>
     <t>str; default = 'default_solv_candidate.json'</t>
   </si>
   <si>
@@ -166,6 +148,15 @@
   </si>
   <si>
     <t>Advanced filtration options. This version includes miscibility check and boiling point check. Miscibility check is based on immiscible solvent pairs suggested on PubChem. If immiscible pair has been detected, that pair will be removed from final results. (Note that due to data availability, not all solvents have published miscibility info; check Limitation for more info.) B.p. check will remove solvents whose b.p. below the target temperature. Full processing details, including what has been filtered during the advanced filtration steps, are available in the final log output. Reminder: Elements in the adv_filt_opt_usr list must be included in the available option list (for this version, ['miscibility', 'bp']). Please check the spelling carefully and avoid inputting special characters. Please make sure to input correct list format (avoid missing or adding extra quote or comma). Real results may vary if temperature correction has been applied. Manual check is recommended. (Check Limitation for more info.)</t>
+  </si>
+  <si>
+    <t>default_solv_candidate.json</t>
+  </si>
+  <si>
+    <t>target_temp</t>
+  </si>
+  <si>
+    <t>float in the range of (0, 1), default = 0.01</t>
   </si>
 </sst>
 </file>
@@ -182,7 +173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -219,8 +210,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,36 +516,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
+      <c r="E2" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -562,10 +559,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -579,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -596,10 +593,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -613,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -630,7 +627,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -647,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -664,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
@@ -672,7 +669,7 @@
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2">
         <v>25</v>
@@ -681,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>12</v>
@@ -689,24 +686,24 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -715,27 +712,27 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
